--- a/media/salary_files/胡怡慧_109038_薪資條.xlsx
+++ b/media/salary_files/胡怡慧_109038_薪資條.xlsx
@@ -953,15 +953,15 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="16.33203125" customWidth="1" style="40" min="1" max="1"/>
     <col width="13" customWidth="1" style="40" min="2" max="2"/>
-    <col width="18.44140625" customWidth="1" style="40" min="3" max="3"/>
+    <col width="21" customWidth="1" style="40" min="3" max="3"/>
     <col width="15.44140625" bestFit="1" customWidth="1" style="40" min="4" max="4"/>
     <col width="10.21875" customWidth="1" style="40" min="5" max="5"/>
     <col width="14.5546875" customWidth="1" style="40" min="6" max="6"/>
